--- a/completed_peer_fund_table.xlsx
+++ b/completed_peer_fund_table.xlsx
@@ -97,7 +97,7 @@
     <t>物流运输</t>
   </si>
   <si>
-    <t>2023/07/14</t>
+    <t>2023/07/18</t>
   </si>
   <si>
     <t>亿航智能</t>

--- a/completed_peer_fund_table.xlsx
+++ b/completed_peer_fund_table.xlsx
@@ -97,7 +97,7 @@
     <t>物流运输</t>
   </si>
   <si>
-    <t>2023/07/18</t>
+    <t>2023/07/19</t>
   </si>
   <si>
     <t>亿航智能</t>
